--- a/results/min_var_portfolio/min_var_2013.xlsx
+++ b/results/min_var_portfolio/min_var_2013.xlsx
@@ -531,7 +531,7 @@
         <v>0.04560284183462132</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0784828277328289</v>
+        <v>0.1265680465041342</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +577,7 @@
         <v>-0.1167662961174665</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00642939341600081</v>
+        <v>0.02271239078883044</v>
       </c>
     </row>
     <row r="4">
@@ -623,7 +623,7 @@
         <v>-0.05789023477607607</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03809236433691163</v>
+        <v>0.01279536440308497</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +669,7 @@
         <v>-0.02210213413987606</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00100000000000001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6">
@@ -715,7 +715,7 @@
         <v>-0.05170574720679125</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02139573507066661</v>
+        <v>0.02873139331440719</v>
       </c>
     </row>
     <row r="7">
@@ -761,7 +761,7 @@
         <v>-0.04376234053107738</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02659102684260916</v>
+        <v>0.04739794823921178</v>
       </c>
     </row>
     <row r="8">
@@ -807,7 +807,7 @@
         <v>-0.02058437721088753</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4146318657046201</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
@@ -853,7 +853,7 @@
         <v>-0.0669473581171186</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001</v>
+        <v>0.001000000000000011</v>
       </c>
     </row>
     <row r="10">
@@ -899,7 +899,7 @@
         <v>0.008078889539236314</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04774457745193952</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -945,7 +945,7 @@
         <v>-0.06218367176364263</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00100000000000001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="12">
@@ -991,7 +991,7 @@
         <v>0.01525033426642006</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001000000000000003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="13">
@@ -1037,7 +1037,7 @@
         <v>-0.01274107625002862</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1740048347807815</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14">
@@ -1083,7 +1083,7 @@
         <v>0.0008088164457988887</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001000000000000003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="15">
@@ -1129,7 +1129,7 @@
         <v>-0.009477546142467338</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001</v>
+        <v>0.08745057021659455</v>
       </c>
     </row>
     <row r="16">
@@ -1175,7 +1175,7 @@
         <v>0.0452128328741413</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001</v>
+        <v>0.001000000000000005</v>
       </c>
     </row>
     <row r="17">
@@ -1221,7 +1221,7 @@
         <v>-0.02807318976227322</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001</v>
+        <v>0.001000000000000013</v>
       </c>
     </row>
     <row r="18">
@@ -1267,7 +1267,7 @@
         <v>-0.03590937002326403</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1216103867897086</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19">
@@ -1313,7 +1313,7 @@
         <v>-0.03383610702739403</v>
       </c>
       <c r="N19" t="n">
-        <v>0.001000000000000007</v>
+        <v>0.001000000000000009</v>
       </c>
     </row>
     <row r="20">
@@ -1359,7 +1359,7 @@
         <v>0.04651225885643799</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06101698787393307</v>
+        <v>0.06534428653373688</v>
       </c>
     </row>
     <row r="21">
@@ -1405,7 +1405,7 @@
         <v>0.009607030167242103</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001</v>
+        <v>0.001000000000000003</v>
       </c>
     </row>
     <row r="22">
@@ -1415,40 +1415,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.03444576851743451</v>
+        <v>-0.03755441501883384</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01956567308466067</v>
+        <v>-0.0172326475632052</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03240560083142601</v>
+        <v>0.02873724367175603</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01097533599083885</v>
+        <v>0.005595375681225705</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05676316663610481</v>
+        <v>0.07494363704725722</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0005856413089645966</v>
+        <v>-0.01347926687622574</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.05029139321556062</v>
+        <v>-0.01526264754209035</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02719625541282228</v>
+        <v>0.03589284412162125</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00696805787440231</v>
+        <v>-0.002528546400419587</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00946337058353716</v>
+        <v>0.01595208085631053</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03080147386880959</v>
+        <v>0.02418446431986731</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.01369372029517106</v>
+        <v>-0.008285889085776309</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1459,43 +1459,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9661407335101265</v>
+        <v>0.9631420069044215</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9806244924386135</v>
+        <v>0.9829149852566068</v>
       </c>
       <c r="D23" t="n">
-        <v>1.032936380205994</v>
+        <v>1.029154142181564</v>
       </c>
       <c r="E23" t="n">
-        <v>1.011035785941317</v>
+        <v>1.005611059033504</v>
       </c>
       <c r="F23" t="n">
-        <v>1.058405115066398</v>
+        <v>1.077823399863242</v>
       </c>
       <c r="G23" t="n">
-        <v>1.000585812830318</v>
+        <v>0.9866111716372192</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9509522830804987</v>
+        <v>0.9848532363488162</v>
       </c>
       <c r="I23" t="n">
-        <v>1.027569449042181</v>
+        <v>1.036544768674543</v>
       </c>
       <c r="J23" t="n">
-        <v>1.006992391275688</v>
+        <v>0.9974746476803357</v>
       </c>
       <c r="K23" t="n">
-        <v>1.009508289859041</v>
+        <v>1.016079994556233</v>
       </c>
       <c r="L23" t="n">
-        <v>1.031280747385488</v>
+        <v>1.024479280335336</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9863996121839268</v>
+        <v>0.9917483442766625</v>
       </c>
       <c r="N23" t="n">
-        <v>1.260887388926251</v>
+        <v>1.129412494234728</v>
       </c>
     </row>
   </sheetData>
